--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-healthcare-service.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService</t>
+    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -457,6 +457,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>HealthcareService.meta.security</t>
   </si>
   <si>
@@ -622,7 +625,7 @@
     <t>serviceTypeDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -697,7 +700,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -848,7 +851,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -923,13 +926,13 @@
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.2.0-ballot</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1007,7 +1010,7 @@
     <t>HealthcareService.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1651,7 +1654,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1666,7 +1669,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2812,7 +2815,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>76</v>
@@ -2874,10 +2877,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2900,16 +2903,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2935,13 +2938,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2959,7 +2962,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2982,10 +2985,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3008,16 +3011,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3043,13 +3046,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3067,7 +3070,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3090,10 +3093,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3119,13 +3122,13 @@
         <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3175,7 +3178,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3198,10 +3201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3224,16 +3227,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3259,13 +3262,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3283,7 +3286,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3306,14 +3309,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3332,16 +3335,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3391,7 +3394,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3406,7 +3409,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3414,14 +3417,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3440,16 +3443,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3499,7 +3502,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3514,7 +3517,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3522,10 +3525,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3551,10 +3554,10 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3603,7 +3606,7 @@
         <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3626,13 +3629,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
@@ -3654,13 +3657,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3711,7 +3714,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3720,7 +3723,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>114</v>
@@ -3734,10 +3737,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3763,16 +3766,16 @@
         <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3821,7 +3824,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3836,7 +3839,7 @@
         <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3844,10 +3847,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3870,13 +3873,13 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3927,7 +3930,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3942,18 +3945,18 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4056,10 +4059,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4164,10 +4167,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4190,19 +4193,19 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4227,11 +4230,11 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4249,7 +4252,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4264,7 +4267,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4272,10 +4275,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4298,19 +4301,19 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4335,13 +4338,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4359,7 +4362,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4374,7 +4377,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4382,10 +4385,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4411,16 +4414,16 @@
         <v>127</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4433,7 +4436,7 @@
         <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>76</v>
@@ -4469,7 +4472,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4484,7 +4487,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4492,10 +4495,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4521,13 +4524,13 @@
         <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4541,7 +4544,7 @@
         <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>76</v>
@@ -4577,7 +4580,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4592,7 +4595,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4600,10 +4603,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4626,13 +4629,13 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4683,7 +4686,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4698,7 +4701,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4706,10 +4709,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4732,16 +4735,16 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4791,7 +4794,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4806,7 +4809,7 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4814,10 +4817,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4840,23 +4843,23 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>76</v>
@@ -4901,7 +4904,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4916,18 +4919,18 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4950,16 +4953,16 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5009,7 +5012,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5024,7 +5027,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5032,14 +5035,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5058,16 +5061,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5093,13 +5096,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5117,7 +5120,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5132,22 +5135,22 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5166,13 +5169,13 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5199,13 +5202,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5223,7 +5226,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5238,7 +5241,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5272,13 +5275,13 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5305,11 +5308,11 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5327,7 +5330,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5342,7 +5345,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5350,10 +5353,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5376,13 +5379,13 @@
         <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5433,7 +5436,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5448,18 +5451,18 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5485,10 +5488,10 @@
         <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5539,7 +5542,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5554,7 +5557,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5562,10 +5565,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5591,13 +5594,13 @@
         <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5647,7 +5650,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5662,7 +5665,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5670,10 +5673,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5696,13 +5699,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5753,7 +5756,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5768,7 +5771,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5776,10 +5779,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5802,13 +5805,13 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5859,7 +5862,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5874,7 +5877,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5882,10 +5885,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5908,16 +5911,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5967,7 +5970,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5982,7 +5985,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5990,10 +5993,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6016,16 +6019,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6075,7 +6078,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6090,7 +6093,7 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6098,10 +6101,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6124,16 +6127,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6159,13 +6162,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6183,7 +6186,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6198,7 +6201,7 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6206,10 +6209,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6232,13 +6235,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6289,7 +6292,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6312,10 +6315,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6418,10 +6421,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6526,14 +6529,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6555,16 +6558,16 @@
         <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6613,7 +6616,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6628,7 +6631,7 @@
         <v>114</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6636,10 +6639,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6662,13 +6665,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6695,10 +6698,10 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -6719,7 +6722,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6737,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6742,10 +6745,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6768,16 +6771,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6827,7 +6830,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6842,7 +6845,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6850,10 +6853,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6876,16 +6879,16 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6911,13 +6914,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6935,7 +6938,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6950,7 +6953,7 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6958,10 +6961,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6984,16 +6987,16 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7019,10 +7022,10 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
@@ -7043,7 +7046,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7058,7 +7061,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7066,10 +7069,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7092,16 +7095,16 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7127,13 +7130,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7151,7 +7154,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7174,10 +7177,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7200,13 +7203,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7233,13 +7236,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7257,7 +7260,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7272,7 +7275,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7280,10 +7283,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7306,13 +7309,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7363,7 +7366,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7378,7 +7381,7 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7386,10 +7389,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7412,16 +7415,16 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7471,7 +7474,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7486,7 +7489,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7494,10 +7497,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7600,10 +7603,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7708,14 +7711,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7737,16 +7740,16 @@
         <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7795,7 +7798,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7810,7 +7813,7 @@
         <v>114</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7818,10 +7821,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7844,13 +7847,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7877,13 +7880,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -7901,7 +7904,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -7916,7 +7919,7 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7924,10 +7927,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7950,13 +7953,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8007,7 +8010,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8022,7 +8025,7 @@
         <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8030,10 +8033,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8056,16 +8059,16 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8115,7 +8118,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8130,7 +8133,7 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8138,10 +8141,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8164,16 +8167,16 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8223,7 +8226,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8238,7 +8241,7 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8246,10 +8249,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8272,13 +8275,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8329,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8344,7 +8347,7 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8352,10 +8355,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8458,10 +8461,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8566,14 +8569,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8595,16 +8598,16 @@
         <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8653,7 +8656,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8668,7 +8671,7 @@
         <v>114</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8676,10 +8679,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8705,10 +8708,10 @@
         <v>99</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8759,7 +8762,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>85</v>
@@ -8782,10 +8785,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8808,13 +8811,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8865,7 +8868,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -8880,7 +8883,7 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -8888,10 +8891,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8917,10 +8920,10 @@
         <v>99</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8971,7 +8974,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -8986,7 +8989,7 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -8994,10 +8997,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9020,13 +9023,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9077,7 +9080,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
